--- a/excel/collective/zestawy_dla_uczniow/zestaw_013.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_013.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="298">
   <si>
     <t>ZESTAW ZADAŃ NR 13 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Kacper Kowalski</t>
-  </si>
-  <si>
-    <t>Oliwia Król</t>
-  </si>
-  <si>
-    <t>Julia Jaworska</t>
-  </si>
-  <si>
-    <t>Zuzanna Lis</t>
-  </si>
-  <si>
-    <t>Emilia Wójcik</t>
+    <t>Szymon Grabowski</t>
+  </si>
+  <si>
+    <t>Hanna Malinowska</t>
+  </si>
+  <si>
+    <t>Maja Zawadzka</t>
+  </si>
+  <si>
+    <t>Amelia Zawadzka</t>
+  </si>
+  <si>
+    <t>Filip Mazur</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -160,40 +160,40 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>1,10</t>
+  </si>
+  <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>4,00</t>
+    <t>4,10</t>
+  </si>
+  <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>13,80</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>1,80</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>12,90</t>
   </si>
   <si>
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
-    <t>4,70</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>4,90</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
-    <t>16,80</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>13,30</t>
-  </si>
-  <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
-    <t>5,00</t>
+    <t>5,20</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -220,31 +220,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>9,04</t>
+    <t>23,37</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>8,45</t>
+    <t>1,96</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>28,99</t>
+    <t>24,93</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>16,37</t>
+    <t>12,96</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>23,52</t>
+    <t>2,73</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,19 +253,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>8,87</t>
-  </si>
-  <si>
-    <t>2,42</t>
-  </si>
-  <si>
-    <t>28,85</t>
-  </si>
-  <si>
-    <t>22,87</t>
-  </si>
-  <si>
-    <t>19,10</t>
+    <t>11,92</t>
+  </si>
+  <si>
+    <t>4,31</t>
+  </si>
+  <si>
+    <t>12,81</t>
+  </si>
+  <si>
+    <t>21,62</t>
+  </si>
+  <si>
+    <t>9,49</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -274,19 +274,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>22,69</t>
-  </si>
-  <si>
-    <t>23,09</t>
-  </si>
-  <si>
-    <t>25,41</t>
-  </si>
-  <si>
-    <t>27,44</t>
-  </si>
-  <si>
-    <t>6,97</t>
+    <t>17,52</t>
+  </si>
+  <si>
+    <t>22,77</t>
+  </si>
+  <si>
+    <t>2,04</t>
+  </si>
+  <si>
+    <t>24,90</t>
+  </si>
+  <si>
+    <t>7,97</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -340,36 +340,30 @@
     <t>Czy pasek?</t>
   </si>
   <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Grabowski</t>
-  </si>
-  <si>
-    <t>Filip</t>
+    <t>Wojciech</t>
+  </si>
+  <si>
+    <t>Szymański</t>
   </si>
   <si>
     <t>Natalia</t>
   </si>
   <si>
-    <t>Olszewska</t>
-  </si>
-  <si>
-    <t>Mikołaj</t>
+    <t>Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Szymon</t>
   </si>
   <si>
     <t>Nowak</t>
   </si>
   <si>
-    <t>Maja</t>
-  </si>
-  <si>
-    <t>Sadowska</t>
-  </si>
-  <si>
-    <t>Dąbrowski</t>
-  </si>
-  <si>
     <t>Średnia przedmiotu:</t>
   </si>
   <si>
@@ -403,121 +397,130 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Amelia Jaworska</t>
-  </si>
-  <si>
-    <t>05.08.1996</t>
-  </si>
-  <si>
-    <t>7 610,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Nowak</t>
-  </si>
-  <si>
-    <t>13.09.1992</t>
-  </si>
-  <si>
-    <t>11 063,00 zł</t>
-  </si>
-  <si>
-    <t>Mikołaj Kowalczyk</t>
-  </si>
-  <si>
-    <t>22.02.1991</t>
-  </si>
-  <si>
-    <t>4 204,00 zł</t>
-  </si>
-  <si>
-    <t>Adam Wójcik</t>
-  </si>
-  <si>
-    <t>10.08.2004</t>
-  </si>
-  <si>
-    <t>3 077,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Górska</t>
-  </si>
-  <si>
-    <t>20.09.1978</t>
-  </si>
-  <si>
-    <t>5 380,00 zł</t>
-  </si>
-  <si>
-    <t>Julia Czarnecka</t>
-  </si>
-  <si>
-    <t>06.08.1982</t>
-  </si>
-  <si>
-    <t>6 646,00 zł</t>
-  </si>
-  <si>
-    <t>Aleksander Jankowski</t>
-  </si>
-  <si>
-    <t>05.02.1977</t>
-  </si>
-  <si>
-    <t>5 154,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Malinowska</t>
-  </si>
-  <si>
-    <t>01.08.1998</t>
-  </si>
-  <si>
-    <t>8 855,00 zł</t>
-  </si>
-  <si>
-    <t>Wojciech Dąbrowski</t>
-  </si>
-  <si>
-    <t>22.04.1979</t>
-  </si>
-  <si>
-    <t>11 116,00 zł</t>
-  </si>
-  <si>
-    <t>Maja Urbaniak</t>
-  </si>
-  <si>
-    <t>10.03.1992</t>
-  </si>
-  <si>
-    <t>10 765,00 zł</t>
-  </si>
-  <si>
-    <t>Julia Kaźmierczak</t>
-  </si>
-  <si>
-    <t>03.11.1980</t>
-  </si>
-  <si>
-    <t>5 340,00 zł</t>
-  </si>
-  <si>
-    <t>Emilia Malinowska</t>
-  </si>
-  <si>
-    <t>17.03.1984</t>
-  </si>
-  <si>
-    <t>12 013,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Olszewska</t>
-  </si>
-  <si>
-    <t>15.01.1980</t>
-  </si>
-  <si>
-    <t>12 499,00 zł</t>
+    <t>Julia Sadowska</t>
+  </si>
+  <si>
+    <t>06.05.1978</t>
+  </si>
+  <si>
+    <t>9 169,00 zł</t>
+  </si>
+  <si>
+    <t>Szymon Szymański</t>
+  </si>
+  <si>
+    <t>02.04.1996</t>
+  </si>
+  <si>
+    <t>8 050,00 zł</t>
+  </si>
+  <si>
+    <t>Natalia Bednarska</t>
+  </si>
+  <si>
+    <t>22.11.1999</t>
+  </si>
+  <si>
+    <t>14 235,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Piotrowski</t>
+  </si>
+  <si>
+    <t>05.04.1984</t>
+  </si>
+  <si>
+    <t>10 535,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Czarnecka</t>
+  </si>
+  <si>
+    <t>28.08.1993</t>
+  </si>
+  <si>
+    <t>8 838,00 zł</t>
+  </si>
+  <si>
+    <t>Emilia Maciejewska</t>
+  </si>
+  <si>
+    <t>14.06.2002</t>
+  </si>
+  <si>
+    <t>4 850,00 zł</t>
+  </si>
+  <si>
+    <t>Aleksander Kowalski</t>
+  </si>
+  <si>
+    <t>19.09.2001</t>
+  </si>
+  <si>
+    <t>7 403,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Wiśniewski</t>
+  </si>
+  <si>
+    <t>01.07.1987</t>
+  </si>
+  <si>
+    <t>9 068,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Kowalczyk</t>
+  </si>
+  <si>
+    <t>12.01.1996</t>
+  </si>
+  <si>
+    <t>7 629,00 zł</t>
+  </si>
+  <si>
+    <t>Julia Król</t>
+  </si>
+  <si>
+    <t>16.10.1975</t>
+  </si>
+  <si>
+    <t>4 059,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Kaźmierczak</t>
+  </si>
+  <si>
+    <t>23.07.1980</t>
+  </si>
+  <si>
+    <t>6 886,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Wójcik</t>
+  </si>
+  <si>
+    <t>17.02.1988</t>
+  </si>
+  <si>
+    <t>11 773,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Rogalska</t>
+  </si>
+  <si>
+    <t>27.11.1998</t>
+  </si>
+  <si>
+    <t>8 439,00 zł</t>
+  </si>
+  <si>
+    <t>Oliwia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>02.06.1980</t>
+  </si>
+  <si>
+    <t>7 273,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -589,307 +592,313 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Marzec</t>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>653,00 zł</t>
+  </si>
+  <si>
+    <t>777,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
   </si>
   <si>
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>532,00 zł</t>
-  </si>
-  <si>
-    <t>697,00 zł</t>
+    <t>1 046,00 zł</t>
+  </si>
+  <si>
+    <t>1 161,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>1 275,00 zł</t>
+  </si>
+  <si>
+    <t>1 479,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>1 452,00 zł</t>
+  </si>
+  <si>
+    <t>1 859,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>1 413,00 zł</t>
+  </si>
+  <si>
+    <t>1 752,00 zł</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>1 294,00 zł</t>
+  </si>
+  <si>
+    <t>1 721,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>648,00 zł</t>
+  </si>
+  <si>
+    <t>810,00 zł</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>1 177,00 zł</t>
+  </si>
+  <si>
+    <t>1 377,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>647,00 zł</t>
+  </si>
+  <si>
+    <t>861,00 zł</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>1 444,00 zł</t>
+  </si>
+  <si>
+    <t>1 632,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>1 147,00 zł</t>
+  </si>
+  <si>
+    <t>1 388,00 zł</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>1 176,00 zł</t>
+  </si>
+  <si>
+    <t>1 399,00 zł</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>1 321,00 zł</t>
+  </si>
+  <si>
+    <t>1 480,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>1 364,00 zł</t>
+  </si>
+  <si>
+    <t>1 732,00 zł</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>969,00 zł</t>
+  </si>
+  <si>
+    <t>1 221,00 zł</t>
+  </si>
+  <si>
+    <t>520,00 zł</t>
+  </si>
+  <si>
+    <t>598,00 zł</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>931,00 zł</t>
+  </si>
+  <si>
+    <t>1 089,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>668,00 zł</t>
+  </si>
+  <si>
+    <t>735,00 zł</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>1 141,00 zł</t>
+  </si>
+  <si>
+    <t>1 506,00 zł</t>
+  </si>
+  <si>
+    <t>1 492,00 zł</t>
+  </si>
+  <si>
+    <t>1 731,00 zł</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>1 527,00 zł</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>708,00 zł</t>
+  </si>
+  <si>
+    <t>800,00 zł</t>
   </si>
   <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>1 160,00 zł</t>
-  </si>
-  <si>
-    <t>1 496,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Styczeń</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>1 334,00 zł</t>
-  </si>
-  <si>
-    <t>1 828,00 zł</t>
+    <t>1 250,00 zł</t>
+  </si>
+  <si>
+    <t>1 563,00 zł</t>
+  </si>
+  <si>
+    <t>1 015,00 zł</t>
+  </si>
+  <si>
+    <t>1 380,00 zł</t>
+  </si>
+  <si>
+    <t>1 411,00 zł</t>
+  </si>
+  <si>
+    <t>1 905,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>1 312,00 zł</t>
+  </si>
+  <si>
+    <t>1 719,00 zł</t>
   </si>
   <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
-    <t>1 408,00 zł</t>
-  </si>
-  <si>
-    <t>1 929,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>1 002,00 zł</t>
-  </si>
-  <si>
-    <t>1 222,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>1 287,00 zł</t>
-  </si>
-  <si>
-    <t>1 673,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>1 023,00 zł</t>
-  </si>
-  <si>
-    <t>1 371,00 zł</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>1 166,00 zł</t>
-  </si>
-  <si>
-    <t>1 458,00 zł</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>1 405,00 zł</t>
-  </si>
-  <si>
-    <t>1 869,00 zł</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>1 499,00 zł</t>
-  </si>
-  <si>
-    <t>1 679,00 zł</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>1 483,00 zł</t>
-  </si>
-  <si>
-    <t>1 943,00 zł</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>1 013,00 zł</t>
-  </si>
-  <si>
-    <t>1 145,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>1 183,00 zł</t>
-  </si>
-  <si>
-    <t>1 349,00 zł</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>1 026,00 zł</t>
-  </si>
-  <si>
-    <t>1 211,00 zł</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>1 412,00 zł</t>
-  </si>
-  <si>
-    <t>1 666,00 zł</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>1 314,00 zł</t>
-  </si>
-  <si>
-    <t>1 656,00 zł</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>1 146,00 zł</t>
-  </si>
-  <si>
-    <t>1 261,00 zł</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>729,00 zł</t>
-  </si>
-  <si>
-    <t>948,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>919,00 zł</t>
-  </si>
-  <si>
-    <t>1 195,00 zł</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>978,00 zł</t>
-  </si>
-  <si>
-    <t>1 164,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>882,00 zł</t>
-  </si>
-  <si>
-    <t>1 191,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>581,00 zł</t>
-  </si>
-  <si>
-    <t>773,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>1 455,00 zł</t>
-  </si>
-  <si>
-    <t>1 731,00 zł</t>
-  </si>
-  <si>
-    <t>608,00 zł</t>
-  </si>
-  <si>
-    <t>778,00 zł</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>1 179,00 zł</t>
-  </si>
-  <si>
-    <t>1 391,00 zł</t>
-  </si>
-  <si>
-    <t>1 204,00 zł</t>
-  </si>
-  <si>
-    <t>1 505,00 zł</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>585,00 zł</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>1 373,00 zł</t>
-  </si>
-  <si>
-    <t>1 358,00 zł</t>
-  </si>
-  <si>
-    <t>1 793,00 zł</t>
+    <t>1 393,00 zł</t>
+  </si>
+  <si>
+    <t>1 630,00 zł</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>1 272,00 zł</t>
+  </si>
+  <si>
+    <t>1 565,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1446,19 +1455,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
       </c>
       <c r="D17" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1467,19 +1476,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3">
         <v>6</v>
       </c>
-      <c r="C18" s="3">
-        <v>4</v>
-      </c>
       <c r="D18" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E18" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1488,19 +1497,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3">
         <v>2</v>
       </c>
-      <c r="C19" s="3">
+      <c r="F19" s="3">
         <v>3</v>
-      </c>
-      <c r="D19" s="3">
-        <v>5</v>
-      </c>
-      <c r="E19" s="3">
-        <v>6</v>
-      </c>
-      <c r="F19" s="3">
-        <v>4</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1509,19 +1518,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E20" s="3">
         <v>6</v>
       </c>
       <c r="F20" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1530,16 +1539,16 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3">
         <v>5</v>
       </c>
-      <c r="C21" s="3">
-        <v>3</v>
-      </c>
       <c r="D21" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" s="3">
         <v>4</v>
@@ -1551,19 +1560,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C22" s="3">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3">
         <v>4</v>
       </c>
-      <c r="D22" s="3">
-        <v>6</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2</v>
-      </c>
       <c r="F22" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1572,19 +1581,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C23" s="3">
         <v>6</v>
       </c>
       <c r="D23" s="3">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>3</v>
       </c>
-      <c r="E23" s="3">
-        <v>2</v>
-      </c>
       <c r="F23" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1593,19 +1602,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3">
         <v>5</v>
       </c>
-      <c r="D24" s="3">
+      <c r="F24" s="3">
         <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3">
-        <v>4</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1620,13 +1629,13 @@
         <v>6</v>
       </c>
       <c r="D25" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E25" s="3">
         <v>2</v>
       </c>
       <c r="F25" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1635,19 +1644,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="3">
         <v>3</v>
       </c>
       <c r="D26" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E26" s="3">
         <v>4</v>
       </c>
       <c r="F26" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1659,16 +1668,16 @@
         <v>2</v>
       </c>
       <c r="C27" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" s="3">
+        <v>6</v>
+      </c>
+      <c r="E27" s="3">
         <v>4</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3</v>
-      </c>
-      <c r="F27" s="3">
-        <v>6</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1680,16 +1689,16 @@
         <v>4</v>
       </c>
       <c r="C28" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" s="3">
         <v>2</v>
       </c>
       <c r="E28" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F28" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1811,7 +1820,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1826,7 +1835,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1841,7 +1850,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1856,7 +1865,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1871,7 +1880,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1886,7 +1895,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2003,7 +2012,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2015,7 +2024,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2027,7 +2036,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2039,7 +2048,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2051,7 +2060,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2099,7 +2108,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2111,7 +2120,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2123,7 +2132,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2135,7 +2144,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2147,7 +2156,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2195,7 +2204,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2207,7 +2216,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2231,7 +2240,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2243,7 +2252,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2277,10 +2286,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A19" sqref="A19:L19"/>
+      <selection activeCell="A18" sqref="A18:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2386,25 +2395,25 @@
         <v>107</v>
       </c>
       <c r="D12" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E12" s="3">
         <v>4</v>
       </c>
       <c r="F12" s="3">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3">
         <v>2</v>
       </c>
-      <c r="G12" s="3">
-        <v>4</v>
-      </c>
       <c r="H12" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J12" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2415,25 +2424,25 @@
         <v>108</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" s="3">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3">
         <v>6</v>
       </c>
-      <c r="H13" s="3">
-        <v>3</v>
-      </c>
       <c r="I13" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J13" s="3">
         <v>4</v>
@@ -2444,31 +2453,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" s="3">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>3</v>
-      </c>
-      <c r="H14" s="3">
-        <v>6</v>
-      </c>
-      <c r="I14" s="3">
-        <v>2</v>
-      </c>
-      <c r="J14" s="3">
-        <v>4</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2479,28 +2488,28 @@
         <v>111</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3">
         <v>6</v>
       </c>
-      <c r="E15" s="3">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
+        <v>2</v>
+      </c>
+      <c r="I15" s="3">
         <v>3</v>
       </c>
-      <c r="G15" s="3">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3">
-        <v>4</v>
-      </c>
       <c r="J15" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2508,16 +2517,16 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="D16" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E16" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F16" s="3">
         <v>3</v>
@@ -2526,52 +2535,36 @@
         <v>3</v>
       </c>
       <c r="H16" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I16" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J16" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="3">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>6</v>
-      </c>
-      <c r="F17" s="3">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="A17" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -2585,27 +2578,11 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="D18:L18"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2618,10 +2595,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A27" sqref="A27:B29"/>
+      <selection activeCell="A28" sqref="A28:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2633,7 +2610,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2643,194 +2620,197 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B23" s="3" t="s">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="13" t="s">
+      <c r="C24" s="3" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="s">
+      <c r="A27" s="13" t="s">
         <v>167</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2838,7 +2818,7 @@
         <v>168</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2846,7 +2826,15 @@
         <v>169</v>
       </c>
       <c r="B29" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>170</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2864,10 +2852,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A48" sqref="A48:B52"/>
+      <selection activeCell="A47" sqref="A47:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2883,7 +2871,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2893,75 +2881,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2969,22 +2957,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2992,7 +2980,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>196</v>
@@ -3007,7 +2995,7 @@
         <v>199</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3015,22 +3003,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3038,22 +3026,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3061,22 +3049,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3084,22 +3072,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3107,22 +3095,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3130,22 +3118,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3153,22 +3141,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>199</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3176,22 +3164,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3199,22 +3187,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3222,22 +3210,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3245,22 +3233,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3268,22 +3256,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3291,22 +3279,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3314,22 +3302,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3337,22 +3325,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3360,22 +3348,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3383,22 +3371,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3406,22 +3394,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3429,22 +3417,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3452,22 +3440,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>189</v>
+        <v>248</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3475,22 +3463,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>267</v>
-      </c>
       <c r="D38" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>216</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3498,22 +3486,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3521,22 +3509,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>189</v>
+        <v>248</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>278</v>
+        <v>206</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>220</v>
+        <v>282</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3544,22 +3532,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>199</v>
+        <v>287</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3567,22 +3555,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>284</v>
+        <v>212</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>191</v>
+        <v>288</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3590,90 +3578,67 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>210</v>
+        <v>291</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="3">
-        <v>29</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>232</v>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="13" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="13" t="s">
-        <v>166</v>
+      <c r="A47" t="s">
+        <v>293</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>294</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_013.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_013.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
   <si>
     <t>ZESTAW ZADAŃ NR 13 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 13 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>1,10</t>
-  </si>
-  <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>4,10</t>
-  </si>
-  <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>13,80</t>
-  </si>
-  <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>1,80</t>
-  </si>
-  <si>
     <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
-    <t>12,90</t>
-  </si>
-  <si>
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
-    <t>5,20</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>23,37</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>1,96</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>24,93</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>12,96</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>2,73</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>11,92</t>
-  </si>
-  <si>
-    <t>4,31</t>
-  </si>
-  <si>
-    <t>12,81</t>
-  </si>
-  <si>
-    <t>21,62</t>
-  </si>
-  <si>
-    <t>9,49</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>17,52</t>
-  </si>
-  <si>
-    <t>22,77</t>
-  </si>
-  <si>
-    <t>2,04</t>
-  </si>
-  <si>
-    <t>24,90</t>
-  </si>
-  <si>
-    <t>7,97</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -403,126 +325,84 @@
     <t>06.05.1978</t>
   </si>
   <si>
-    <t>9 169,00 zł</t>
-  </si>
-  <si>
     <t>Szymon Szymański</t>
   </si>
   <si>
     <t>02.04.1996</t>
   </si>
   <si>
-    <t>8 050,00 zł</t>
-  </si>
-  <si>
     <t>Natalia Bednarska</t>
   </si>
   <si>
     <t>22.11.1999</t>
   </si>
   <si>
-    <t>14 235,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Piotrowski</t>
   </si>
   <si>
     <t>05.04.1984</t>
   </si>
   <si>
-    <t>10 535,00 zł</t>
-  </si>
-  <si>
     <t>Maja Czarnecka</t>
   </si>
   <si>
     <t>28.08.1993</t>
   </si>
   <si>
-    <t>8 838,00 zł</t>
-  </si>
-  <si>
     <t>Emilia Maciejewska</t>
   </si>
   <si>
     <t>14.06.2002</t>
   </si>
   <si>
-    <t>4 850,00 zł</t>
-  </si>
-  <si>
     <t>Aleksander Kowalski</t>
   </si>
   <si>
     <t>19.09.2001</t>
   </si>
   <si>
-    <t>7 403,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Wiśniewski</t>
   </si>
   <si>
     <t>01.07.1987</t>
   </si>
   <si>
-    <t>9 068,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Kowalczyk</t>
   </si>
   <si>
     <t>12.01.1996</t>
   </si>
   <si>
-    <t>7 629,00 zł</t>
-  </si>
-  <si>
     <t>Julia Król</t>
   </si>
   <si>
     <t>16.10.1975</t>
   </si>
   <si>
-    <t>4 059,00 zł</t>
-  </si>
-  <si>
     <t>Lena Kaźmierczak</t>
   </si>
   <si>
     <t>23.07.1980</t>
   </si>
   <si>
-    <t>6 886,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Wójcik</t>
   </si>
   <si>
     <t>17.02.1988</t>
   </si>
   <si>
-    <t>11 773,00 zł</t>
-  </si>
-  <si>
     <t>Maja Rogalska</t>
   </si>
   <si>
     <t>27.11.1998</t>
   </si>
   <si>
-    <t>8 439,00 zł</t>
-  </si>
-  <si>
     <t>Oliwia Kaźmierczak</t>
   </si>
   <si>
     <t>02.06.1980</t>
   </si>
   <si>
-    <t>7 273,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -535,9 +415,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -598,12 +475,6 @@
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>653,00 zł</t>
-  </si>
-  <si>
-    <t>777,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
@@ -613,12 +484,6 @@
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>1 046,00 zł</t>
-  </si>
-  <si>
-    <t>1 161,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
@@ -628,12 +493,6 @@
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>1 275,00 zł</t>
-  </si>
-  <si>
-    <t>1 479,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
@@ -643,12 +502,6 @@
     <t>Smartphone 5G 128GB</t>
   </si>
   <si>
-    <t>1 452,00 zł</t>
-  </si>
-  <si>
-    <t>1 859,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
@@ -661,24 +514,12 @@
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>1 413,00 zł</t>
-  </si>
-  <si>
-    <t>1 752,00 zł</t>
-  </si>
-  <si>
     <t>lubuskie</t>
   </si>
   <si>
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>1 294,00 zł</t>
-  </si>
-  <si>
-    <t>1 721,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
@@ -688,186 +529,75 @@
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>648,00 zł</t>
-  </si>
-  <si>
-    <t>810,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
     <t>małopolskie</t>
   </si>
   <si>
-    <t>1 177,00 zł</t>
-  </si>
-  <si>
-    <t>1 377,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
     <t>dolnośląskie</t>
   </si>
   <si>
-    <t>647,00 zł</t>
-  </si>
-  <si>
-    <t>861,00 zł</t>
-  </si>
-  <si>
     <t>śląskie</t>
   </si>
   <si>
     <t>Karta graficzna RTX</t>
   </si>
   <si>
-    <t>1 444,00 zł</t>
-  </si>
-  <si>
-    <t>1 632,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
-    <t>1 147,00 zł</t>
-  </si>
-  <si>
-    <t>1 388,00 zł</t>
-  </si>
-  <si>
     <t>kwiecień</t>
   </si>
   <si>
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>1 176,00 zł</t>
-  </si>
-  <si>
-    <t>1 399,00 zł</t>
-  </si>
-  <si>
     <t>opolskie</t>
   </si>
   <si>
     <t>Mysz gamingowa</t>
   </si>
   <si>
-    <t>1 321,00 zł</t>
-  </si>
-  <si>
-    <t>1 480,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
     <t>marzec</t>
   </si>
   <si>
-    <t>1 364,00 zł</t>
-  </si>
-  <si>
-    <t>1 732,00 zł</t>
-  </si>
-  <si>
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>969,00 zł</t>
-  </si>
-  <si>
-    <t>1 221,00 zł</t>
-  </si>
-  <si>
-    <t>520,00 zł</t>
-  </si>
-  <si>
-    <t>598,00 zł</t>
-  </si>
-  <si>
     <t>mazowieckie</t>
   </si>
   <si>
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>931,00 zł</t>
-  </si>
-  <si>
-    <t>1 089,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
     <t>podlaskie</t>
   </si>
   <si>
-    <t>668,00 zł</t>
-  </si>
-  <si>
-    <t>735,00 zł</t>
-  </si>
-  <si>
     <t>pomorskie</t>
   </si>
   <si>
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>1 141,00 zł</t>
-  </si>
-  <si>
-    <t>1 506,00 zł</t>
-  </si>
-  <si>
-    <t>1 492,00 zł</t>
-  </si>
-  <si>
-    <t>1 731,00 zł</t>
-  </si>
-  <si>
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>1 527,00 zł</t>
-  </si>
-  <si>
     <t>warmińsko-mazurskie</t>
   </si>
   <si>
-    <t>708,00 zł</t>
-  </si>
-  <si>
-    <t>800,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
-    <t>1 250,00 zł</t>
-  </si>
-  <si>
-    <t>1 563,00 zł</t>
-  </si>
-  <si>
-    <t>1 015,00 zł</t>
-  </si>
-  <si>
-    <t>1 380,00 zł</t>
-  </si>
-  <si>
-    <t>1 411,00 zł</t>
-  </si>
-  <si>
-    <t>1 905,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
@@ -877,28 +607,10 @@
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
-    <t>1 312,00 zł</t>
-  </si>
-  <si>
-    <t>1 719,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
-    <t>1 393,00 zł</t>
-  </si>
-  <si>
-    <t>1 630,00 zł</t>
-  </si>
-  <si>
     <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>1 272,00 zł</t>
-  </si>
-  <si>
-    <t>1 565,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -920,7 +632,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -977,14 +691,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -995,8 +709,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1027,30 +741,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1353,7 +1068,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1428,25 +1143,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1469,7 +1184,7 @@
       <c r="F17" s="3">
         <v>6</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1490,7 +1205,7 @@
       <c r="F18" s="3">
         <v>2</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1511,7 +1226,7 @@
       <c r="F19" s="3">
         <v>3</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1532,7 +1247,7 @@
       <c r="F20" s="3">
         <v>6</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1553,7 +1268,7 @@
       <c r="F21" s="3">
         <v>4</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1574,7 +1289,7 @@
       <c r="F22" s="3">
         <v>5</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1595,7 +1310,7 @@
       <c r="F23" s="3">
         <v>5</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1616,7 +1331,7 @@
       <c r="F24" s="3">
         <v>5</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1637,7 +1352,7 @@
       <c r="F25" s="3">
         <v>2</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1658,7 +1373,7 @@
       <c r="F26" s="3">
         <v>2</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1679,7 +1394,7 @@
       <c r="F27" s="3">
         <v>3</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1700,27 +1415,17 @@
       <c r="F28" s="3">
         <v>2</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1754,7 +1459,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1774,7 +1479,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1784,29 +1489,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1814,99 +1519,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1.1</v>
       </c>
       <c r="D13" s="3">
         <v>5</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>4.1</v>
       </c>
       <c r="D14" s="3">
         <v>5</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>13.8</v>
       </c>
       <c r="D15" s="3">
         <v>6</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1.8</v>
       </c>
       <c r="D16" s="3">
         <v>4</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>12.9</v>
       </c>
       <c r="D17" s="3">
         <v>5</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>5.2</v>
       </c>
       <c r="D18" s="3">
         <v>8</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1939,7 +1644,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1964,113 +1669,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>23.37</v>
       </c>
       <c r="C15" s="3">
         <v>30</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1.96</v>
       </c>
       <c r="C16" s="3">
         <v>27</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>24.93</v>
       </c>
       <c r="C17" s="3">
         <v>38</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>12.96</v>
       </c>
       <c r="C18" s="3">
         <v>26</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2.73</v>
       </c>
       <c r="C19" s="3">
         <v>38</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2079,94 +1784,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>11.92</v>
       </c>
       <c r="C24" s="3">
         <v>26</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>4.31</v>
       </c>
       <c r="C25" s="3">
         <v>33</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>12.81</v>
       </c>
       <c r="C26" s="3">
         <v>17</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>21.62</v>
       </c>
       <c r="C27" s="3">
         <v>46</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>9.49</v>
       </c>
       <c r="C28" s="3">
         <v>29</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2175,98 +1880,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>17.52</v>
       </c>
       <c r="C33" s="3">
         <v>23</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>22.77</v>
       </c>
       <c r="C34" s="3">
         <v>39</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>2.04</v>
       </c>
       <c r="C35" s="3">
         <v>31</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>24.9</v>
       </c>
       <c r="C36" s="3">
         <v>49</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>7.97</v>
       </c>
       <c r="C37" s="3">
         <v>47</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2289,7 +1994,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A18" sqref="A18:L18"/>
+      <selection activeCell="A11" sqref="A11:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2309,90 +2014,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>5</v>
@@ -2415,16 +2120,16 @@
       <c r="J12" s="3">
         <v>6</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
@@ -2447,16 +2152,16 @@
       <c r="J13" s="3">
         <v>4</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D14" s="3">
         <v>3</v>
@@ -2479,16 +2184,16 @@
       <c r="J14" s="3">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
@@ -2511,16 +2216,16 @@
       <c r="J15" s="3">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D16" s="3">
         <v>5</v>
@@ -2543,40 +2248,40 @@
       <c r="J16" s="3">
         <v>2</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="A17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="A18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2609,233 +2314,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>116</v>
+      <c r="A1" s="15" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>124</v>
+      <c r="A10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>127</v>
+        <v>100</v>
+      </c>
+      <c r="C11" s="7">
+        <v>9169</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>130</v>
+        <v>102</v>
+      </c>
+      <c r="C12" s="7">
+        <v>8050</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>133</v>
+        <v>104</v>
+      </c>
+      <c r="C13" s="7">
+        <v>14235</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>136</v>
+        <v>106</v>
+      </c>
+      <c r="C14" s="7">
+        <v>10535</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>139</v>
+        <v>108</v>
+      </c>
+      <c r="C15" s="7">
+        <v>8838</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>142</v>
+        <v>110</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4850</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>145</v>
+        <v>112</v>
+      </c>
+      <c r="C17" s="7">
+        <v>7403</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>148</v>
+        <v>114</v>
+      </c>
+      <c r="C18" s="7">
+        <v>9068</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>151</v>
+        <v>116</v>
+      </c>
+      <c r="C19" s="7">
+        <v>7629</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>154</v>
+        <v>118</v>
+      </c>
+      <c r="C20" s="7">
+        <v>4059</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>157</v>
+        <v>120</v>
+      </c>
+      <c r="C21" s="7">
+        <v>6886</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>160</v>
+        <v>122</v>
+      </c>
+      <c r="C22" s="7">
+        <v>11773</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
+      </c>
+      <c r="C23" s="7">
+        <v>8439</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>166</v>
+        <v>126</v>
+      </c>
+      <c r="C24" s="7">
+        <v>7273</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="13" t="s">
-        <v>167</v>
+      <c r="A27" s="17" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>171</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>169</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>171</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>170</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>171</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B30" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2870,86 +2569,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>172</v>
+      <c r="A1" s="15" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>189</v>
+      <c r="A15" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2957,22 +2656,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>193</v>
+        <v>150</v>
+      </c>
+      <c r="D16" s="7">
+        <v>653</v>
+      </c>
+      <c r="E16" s="7">
+        <v>777</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2980,22 +2679,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>198</v>
+        <v>153</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1046</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1161</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3003,22 +2702,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>203</v>
+        <v>156</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1275</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1479</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3026,22 +2725,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>208</v>
+        <v>159</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1452</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1859</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3049,22 +2748,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>214</v>
+        <v>163</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1413</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1752</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>215</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3072,22 +2771,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>218</v>
+        <v>165</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1294</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1721</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>215</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3095,22 +2794,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>223</v>
+        <v>168</v>
+      </c>
+      <c r="D22" s="7">
+        <v>648</v>
+      </c>
+      <c r="E22" s="7">
+        <v>810</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>225</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3118,22 +2817,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>227</v>
+        <v>150</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1177</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1377</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>228</v>
+        <v>171</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3141,22 +2840,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>231</v>
+        <v>159</v>
+      </c>
+      <c r="D24" s="7">
+        <v>647</v>
+      </c>
+      <c r="E24" s="7">
+        <v>861</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>232</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3164,22 +2863,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>235</v>
+        <v>174</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1444</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1632</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3187,22 +2886,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>238</v>
+        <v>165</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1147</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1388</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3210,22 +2909,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>239</v>
+        <v>176</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>242</v>
+        <v>177</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1176</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1399</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>243</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3233,22 +2932,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>239</v>
+        <v>176</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>246</v>
+        <v>179</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1321</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1480</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>247</v>
+        <v>180</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3256,22 +2955,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>248</v>
+        <v>181</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>250</v>
+        <v>165</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1364</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1732</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>243</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3279,22 +2978,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>239</v>
+        <v>176</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>253</v>
+        <v>182</v>
+      </c>
+      <c r="D30" s="7">
+        <v>969</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1221</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>232</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3302,22 +3001,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>255</v>
+        <v>168</v>
+      </c>
+      <c r="D31" s="7">
+        <v>520</v>
+      </c>
+      <c r="E31" s="7">
+        <v>598</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>228</v>
+        <v>171</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3325,22 +3024,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>259</v>
+        <v>184</v>
+      </c>
+      <c r="D32" s="7">
+        <v>931</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1089</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>260</v>
+        <v>185</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>261</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3348,22 +3047,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>263</v>
+        <v>177</v>
+      </c>
+      <c r="D33" s="7">
+        <v>668</v>
+      </c>
+      <c r="E33" s="7">
+        <v>735</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>264</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3371,22 +3070,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>239</v>
+        <v>176</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>267</v>
+        <v>188</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1141</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1506</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3394,22 +3093,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>269</v>
+        <v>159</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1492</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1731</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>225</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3417,22 +3116,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>271</v>
+        <v>189</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1388</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1527</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>260</v>
+        <v>185</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>272</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3440,22 +3139,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>248</v>
+        <v>181</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>274</v>
+        <v>177</v>
+      </c>
+      <c r="D37" s="7">
+        <v>708</v>
+      </c>
+      <c r="E37" s="7">
+        <v>800</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>275</v>
+        <v>191</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>261</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3463,22 +3162,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>277</v>
+        <v>156</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1250</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1563</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>260</v>
+        <v>185</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>261</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3486,22 +3185,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>239</v>
+        <v>176</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>279</v>
+        <v>153</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1015</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1380</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>243</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3509,22 +3208,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>248</v>
+        <v>181</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>281</v>
+        <v>159</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1411</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1905</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>283</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3532,22 +3231,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>248</v>
+        <v>181</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>286</v>
+        <v>194</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1312</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1719</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>287</v>
+        <v>195</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>243</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3555,22 +3254,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>289</v>
+        <v>163</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1393</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1630</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>260</v>
+        <v>185</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3578,68 +3277,58 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>239</v>
+        <v>176</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>292</v>
+        <v>196</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1272</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1565</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="13" t="s">
-        <v>167</v>
+      <c r="A46" s="17" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>293</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>171</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>294</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>171</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>295</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>171</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>296</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>171</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>297</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>171</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B51" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_013.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_013.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
   <si>
     <t>ZESTAW ZADAŃ NR 13 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +62,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Szymon Grabowski</t>
-  </si>
-  <si>
-    <t>Hanna Malinowska</t>
-  </si>
-  <si>
-    <t>Maja Zawadzka</t>
-  </si>
-  <si>
-    <t>Amelia Zawadzka</t>
-  </si>
-  <si>
-    <t>Filip Mazur</t>
+    <t>Hanna Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Julia Malinowska</t>
+  </si>
+  <si>
+    <t>Anna Malinowska</t>
+  </si>
+  <si>
+    <t>Antoni Grabowski</t>
+  </si>
+  <si>
+    <t>Antoni Kamiński</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -118,6 +119,9 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
     <t>ZESTAW ZADAŃ NR 13 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -148,19 +152,19 @@
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>Pędzelek</t>
+    <t>Długopis niebieski</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
   </si>
   <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
-    <t>Blok rysunkowy A4</t>
+    <t>Temperówka</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -217,6 +221,9 @@
     <t>SUMA z 3 miesięcy:</t>
   </si>
   <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
     <t>ZADANIE 4: ŚREDNIE KLASY</t>
   </si>
   <si>
@@ -232,7 +239,7 @@
     <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
   </si>
   <si>
     <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
@@ -259,31 +266,43 @@
     <t>Średnia ucznia</t>
   </si>
   <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Wojciech</t>
-  </si>
-  <si>
-    <t>Szymański</t>
-  </si>
-  <si>
-    <t>Natalia</t>
-  </si>
-  <si>
-    <t>Kaźmierczak</t>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Rogalska</t>
+  </si>
+  <si>
+    <t>Urbaniak</t>
+  </si>
+  <si>
+    <t>Mikołaj</t>
+  </si>
+  <si>
+    <t>Kowalski</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Król</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Lewandowski</t>
   </si>
   <si>
     <t>Kwiatkowski</t>
   </si>
   <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Nowak</t>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Czarnecka</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -319,88 +338,40 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Julia Sadowska</t>
-  </si>
-  <si>
-    <t>06.05.1978</t>
-  </si>
-  <si>
-    <t>Szymon Szymański</t>
-  </si>
-  <si>
-    <t>02.04.1996</t>
-  </si>
-  <si>
-    <t>Natalia Bednarska</t>
-  </si>
-  <si>
-    <t>22.11.1999</t>
-  </si>
-  <si>
-    <t>Wojciech Piotrowski</t>
-  </si>
-  <si>
-    <t>05.04.1984</t>
-  </si>
-  <si>
-    <t>Maja Czarnecka</t>
-  </si>
-  <si>
-    <t>28.08.1993</t>
-  </si>
-  <si>
-    <t>Emilia Maciejewska</t>
-  </si>
-  <si>
-    <t>14.06.2002</t>
-  </si>
-  <si>
-    <t>Aleksander Kowalski</t>
-  </si>
-  <si>
-    <t>19.09.2001</t>
-  </si>
-  <si>
-    <t>Wojciech Wiśniewski</t>
-  </si>
-  <si>
-    <t>01.07.1987</t>
-  </si>
-  <si>
-    <t>Jakub Kowalczyk</t>
-  </si>
-  <si>
-    <t>12.01.1996</t>
-  </si>
-  <si>
-    <t>Julia Król</t>
-  </si>
-  <si>
-    <t>16.10.1975</t>
-  </si>
-  <si>
-    <t>Lena Kaźmierczak</t>
-  </si>
-  <si>
-    <t>23.07.1980</t>
-  </si>
-  <si>
-    <t>Zuzanna Wójcik</t>
-  </si>
-  <si>
-    <t>17.02.1988</t>
-  </si>
-  <si>
-    <t>Maja Rogalska</t>
-  </si>
-  <si>
-    <t>27.11.1998</t>
-  </si>
-  <si>
-    <t>Oliwia Kaźmierczak</t>
-  </si>
-  <si>
-    <t>02.06.1980</t>
+    <t>Natalia Wilk</t>
+  </si>
+  <si>
+    <t>Szymon Mazur</t>
+  </si>
+  <si>
+    <t>Zuzanna Borkowska</t>
+  </si>
+  <si>
+    <t>Mikołaj Krawczyk</t>
+  </si>
+  <si>
+    <t>Kacper Kaczmarek</t>
+  </si>
+  <si>
+    <t>Emilia Górska</t>
+  </si>
+  <si>
+    <t>Szymon Krawczyk</t>
+  </si>
+  <si>
+    <t>Jakub Wojciechowski</t>
+  </si>
+  <si>
+    <t>Filip Wojciechowski</t>
+  </si>
+  <si>
+    <t>Antoni Krawczyk</t>
+  </si>
+  <si>
+    <t>Natalia Kubiak</t>
+  </si>
+  <si>
+    <t>Lena Borkowska</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -415,7 +386,64 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Oliwia Jaworska</t>
+  </si>
+  <si>
+    <t>Antoni Piotrowski</t>
+  </si>
+  <si>
+    <t>Mikołaj Zieliński</t>
+  </si>
+  <si>
+    <t>Kacper Wiśniewski</t>
+  </si>
+  <si>
+    <t>Mikołaj Mazur</t>
+  </si>
+  <si>
+    <t>Jakub Kozłowski</t>
+  </si>
+  <si>
+    <t>Zuzanna Malinowska</t>
+  </si>
+  <si>
+    <t>Filip Krawczyk</t>
+  </si>
+  <si>
+    <t>Kacper Zieliński</t>
+  </si>
+  <si>
+    <t>Lena Malinowska</t>
+  </si>
+  <si>
+    <t>Julia Wilk</t>
+  </si>
+  <si>
+    <t>Natalia Król</t>
+  </si>
+  <si>
+    <t>Szymon Jankowski</t>
+  </si>
+  <si>
+    <t>Jan Kwiatkowski</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -469,148 +497,160 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
     <t>luty</t>
   </si>
   <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
   </si>
   <si>
     <t>dolnośląskie</t>
   </si>
   <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -682,7 +722,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -705,12 +745,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -741,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -752,13 +786,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1065,7 +1098,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1173,16 +1206,16 @@
         <v>3</v>
       </c>
       <c r="C17" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F17" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1194,16 +1227,16 @@
         <v>2</v>
       </c>
       <c r="C18" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E18" s="3">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
         <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1212,19 +1245,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E19" s="3">
         <v>2</v>
       </c>
       <c r="F19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1239,13 +1272,13 @@
         <v>4</v>
       </c>
       <c r="D20" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1257,10 +1290,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" s="3">
         <v>5</v>
@@ -1275,7 +1308,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C22" s="3">
         <v>5</v>
@@ -1284,10 +1317,10 @@
         <v>2</v>
       </c>
       <c r="E22" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F22" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1296,16 +1329,16 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="3">
         <v>4</v>
       </c>
       <c r="E23" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" s="3">
         <v>5</v>
@@ -1317,19 +1350,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3">
         <v>3</v>
       </c>
-      <c r="C24" s="3">
-        <v>2</v>
-      </c>
       <c r="D24" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E24" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F24" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1341,16 +1374,16 @@
         <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D25" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F25" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1359,19 +1392,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D26" s="3">
         <v>2</v>
       </c>
       <c r="E26" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F26" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1380,19 +1413,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2</v>
+      </c>
+      <c r="F27" s="3">
         <v>6</v>
-      </c>
-      <c r="E27" s="3">
-        <v>4</v>
-      </c>
-      <c r="F27" s="3">
-        <v>3</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1404,13 +1437,13 @@
         <v>4</v>
       </c>
       <c r="C28" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28" s="3">
         <v>2</v>
@@ -1426,6 +1459,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1459,7 +1498,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1479,7 +1518,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1489,29 +1528,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1519,99 +1558,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1.1</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1.4</v>
       </c>
       <c r="D13" s="3">
-        <v>5</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>4.1</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2.7</v>
       </c>
       <c r="D14" s="3">
         <v>5</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>13.8</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>17.2</v>
       </c>
       <c r="D15" s="3">
-        <v>6</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1.8</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>4</v>
       </c>
       <c r="D16" s="3">
-        <v>4</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>12.9</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>9.2</v>
       </c>
       <c r="D17" s="3">
-        <v>5</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>5.2</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>3.8</v>
       </c>
       <c r="D18" s="3">
-        <v>8</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1628,10 +1667,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1644,7 +1683,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1669,27 +1708,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1697,85 +1736,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>23.37</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>9.029999999999999</v>
       </c>
       <c r="C15" s="3">
-        <v>30</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1.96</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>14.63</v>
       </c>
       <c r="C16" s="3">
-        <v>27</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>24.93</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>26.47</v>
       </c>
       <c r="C17" s="3">
-        <v>38</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>12.96</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>17.99</v>
       </c>
       <c r="C18" s="3">
-        <v>26</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>2.73</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>27.44</v>
       </c>
       <c r="C19" s="3">
-        <v>38</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1784,8 +1823,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1793,85 +1832,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>11.92</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>23.36</v>
       </c>
       <c r="C24" s="3">
-        <v>26</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>4.31</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>2.64</v>
       </c>
       <c r="C25" s="3">
-        <v>33</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>12.81</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>12.57</v>
       </c>
       <c r="C26" s="3">
-        <v>17</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>21.62</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>6.44</v>
       </c>
       <c r="C27" s="3">
-        <v>46</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>9.49</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>6.17</v>
       </c>
       <c r="C28" s="3">
-        <v>29</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1880,8 +1919,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1889,89 +1928,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>17.52</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>4.8</v>
       </c>
       <c r="C33" s="3">
-        <v>23</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>22.77</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>2.42</v>
       </c>
       <c r="C34" s="3">
-        <v>39</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>2.04</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>4.91</v>
       </c>
       <c r="C35" s="3">
-        <v>31</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>24.9</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>26.67</v>
       </c>
       <c r="C36" s="3">
-        <v>49</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>7.97</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>28.79</v>
       </c>
       <c r="C37" s="3">
-        <v>47</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1991,10 +2038,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:L18"/>
+      <selection activeCell="A11" sqref="A11:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2014,111 +2061,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
-        <v>5</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2</v>
-      </c>
-      <c r="H12" s="3">
-        <v>5</v>
-      </c>
       <c r="I12" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J12" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2129,28 +2176,28 @@
         <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
       </c>
       <c r="E13" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F13" s="3">
         <v>4</v>
       </c>
       <c r="G13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I13" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J13" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2158,31 +2205,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D14" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14" s="3">
         <v>6</v>
       </c>
       <c r="F14" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G14" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H14" s="3">
         <v>5</v>
       </c>
       <c r="I14" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J14" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2190,31 +2237,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D15" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F15" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G15" s="3">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
         <v>6</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2</v>
-      </c>
-      <c r="I15" s="3">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3">
-        <v>3</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2222,28 +2269,28 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D16" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E16" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3">
         <v>3</v>
       </c>
-      <c r="G16" s="3">
-        <v>3</v>
-      </c>
-      <c r="H16" s="3">
-        <v>2</v>
-      </c>
       <c r="I16" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J16" s="3">
         <v>2</v>
@@ -2252,42 +2299,106 @@
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3</v>
+      </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="D20:L20"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2300,10 +2411,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A28" sqref="A28:B30"/>
+      <selection activeCell="A27" sqref="A27:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2314,227 +2425,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>90</v>
+      <c r="A1" s="14" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="7">
-        <v>9169</v>
+        <v>105</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2002</v>
+      </c>
+      <c r="C11" s="8">
+        <v>9525</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="7">
-        <v>8050</v>
+        <v>106</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1982</v>
+      </c>
+      <c r="C12" s="8">
+        <v>4266</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="7">
-        <v>14235</v>
+        <v>107</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C13" s="8">
+        <v>9369</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="7">
-        <v>10535</v>
+        <v>108</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C14" s="8">
+        <v>10609</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="7">
-        <v>8838</v>
+        <v>109</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1991</v>
+      </c>
+      <c r="C15" s="8">
+        <v>10028</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="7">
-        <v>4850</v>
+      <c r="B16" s="3">
+        <v>1986</v>
+      </c>
+      <c r="C16" s="8">
+        <v>8829</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="7">
-        <v>7403</v>
+      <c r="B17" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C17" s="8">
+        <v>9154</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="7">
-        <v>9068</v>
+        <v>112</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1990</v>
+      </c>
+      <c r="C18" s="8">
+        <v>8883</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="7">
-        <v>7629</v>
+        <v>113</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1995</v>
+      </c>
+      <c r="C19" s="8">
+        <v>11695</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="7">
-        <v>4059</v>
+        <v>114</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1979</v>
+      </c>
+      <c r="C20" s="8">
+        <v>11409</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="7">
-        <v>6886</v>
+        <v>115</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1995</v>
+      </c>
+      <c r="C21" s="8">
+        <v>12316</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="7">
-        <v>11773</v>
+        <v>116</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C22" s="8">
+        <v>8872</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="7">
-        <v>8439</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="7">
-        <v>7273</v>
+        <v>113</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1985</v>
+      </c>
+      <c r="C23" s="8">
+        <v>14196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="16" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="17" t="s">
-        <v>127</v>
-      </c>
+      <c r="A27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="B28" s="7"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="B29" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2551,10 +2651,230 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A47" sqref="A47:B51"/>
+      <selection activeCell="A10" sqref="A10:C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="3">
+        <v>180</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="3">
+        <v>144</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="3">
+        <v>160</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="3">
+        <v>136</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="3">
+        <v>138</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="3">
+        <v>122</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="3">
+        <v>122</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="3">
+        <v>104</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="3">
+        <v>143</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="3">
+        <v>128</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="3">
+        <v>142</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="3">
+        <v>91</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="3">
+        <v>117</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="3">
+        <v>165</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="3">
+        <v>199</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="3">
+        <v>176</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="3">
+        <v>177</v>
+      </c>
+      <c r="C27" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G53"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A49" sqref="A49:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2569,86 +2889,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>131</v>
+      <c r="A1" s="14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2656,22 +2976,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="7">
-        <v>653</v>
-      </c>
-      <c r="E16" s="7">
-        <v>777</v>
+        <v>159</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1273</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1489</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2679,22 +2999,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1046</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1161</v>
+        <v>163</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1145</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1534</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2702,22 +3022,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1275</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1479</v>
+        <v>167</v>
+      </c>
+      <c r="D18" s="8">
+        <v>873</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1196</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2725,22 +3045,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1452</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1859</v>
+        <v>170</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1353</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1569</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2748,22 +3068,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1413</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1752</v>
+        <v>174</v>
+      </c>
+      <c r="D20" s="8">
+        <v>941</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1110</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2771,22 +3091,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1483</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1646</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1294</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1721</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2794,22 +3114,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D22" s="7">
-        <v>648</v>
-      </c>
-      <c r="E22" s="7">
-        <v>810</v>
+        <v>179</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1097</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1262</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2817,22 +3137,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1177</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1377</v>
+        <v>182</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1037</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1151</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2840,22 +3160,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D24" s="7">
-        <v>647</v>
-      </c>
-      <c r="E24" s="7">
-        <v>861</v>
+        <v>184</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1142</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1279</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2863,22 +3183,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1444</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1632</v>
+        <v>179</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1188</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1485</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2886,22 +3206,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1147</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1388</v>
+        <v>184</v>
+      </c>
+      <c r="D26" s="8">
+        <v>628</v>
+      </c>
+      <c r="E26" s="8">
+        <v>823</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2909,22 +3229,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1176</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1399</v>
+        <v>189</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1025</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1425</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2932,22 +3252,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1321</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1480</v>
+        <v>167</v>
+      </c>
+      <c r="D28" s="8">
+        <v>810</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1021</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2955,22 +3275,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1364</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1732</v>
+        <v>192</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1337</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1845</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2978,22 +3298,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D30" s="7">
-        <v>969</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1221</v>
+        <v>194</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1181</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1370</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3001,22 +3321,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D31" s="7">
-        <v>520</v>
-      </c>
-      <c r="E31" s="7">
-        <v>598</v>
+        <v>196</v>
+      </c>
+      <c r="D31" s="8">
+        <v>744</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1027</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3024,22 +3344,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D32" s="7">
-        <v>931</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1089</v>
+        <v>192</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1460</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1679</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3047,22 +3367,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D33" s="7">
-        <v>668</v>
-      </c>
-      <c r="E33" s="7">
-        <v>735</v>
+        <v>199</v>
+      </c>
+      <c r="D33" s="8">
+        <v>596</v>
+      </c>
+      <c r="E33" s="8">
+        <v>781</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3070,22 +3390,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1141</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1506</v>
+        <v>202</v>
+      </c>
+      <c r="D34" s="8">
+        <v>799</v>
+      </c>
+      <c r="E34" s="8">
+        <v>951</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3093,22 +3413,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1492</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1731</v>
+        <v>204</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1063</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1233</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3116,22 +3436,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1388</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1527</v>
+        <v>206</v>
+      </c>
+      <c r="D36" s="8">
+        <v>931</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1266</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3139,22 +3459,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D37" s="7">
-        <v>708</v>
-      </c>
-      <c r="E37" s="7">
-        <v>800</v>
+        <v>163</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1208</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1498</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3162,22 +3482,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1250</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1563</v>
+        <v>179</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1082</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1493</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3185,22 +3505,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1015</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1380</v>
+        <v>207</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1237</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1571</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3208,22 +3528,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1411</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1905</v>
+        <v>174</v>
+      </c>
+      <c r="D40" s="8">
+        <v>879</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1213</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3231,22 +3551,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1312</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1719</v>
+        <v>204</v>
+      </c>
+      <c r="D41" s="8">
+        <v>809</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1036</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3254,22 +3574,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D42" s="7">
-        <v>1393</v>
-      </c>
-      <c r="E42" s="7">
-        <v>1630</v>
+        <v>189</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1339</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1540</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3277,58 +3597,104 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D43" s="7">
-        <v>1272</v>
-      </c>
-      <c r="E43" s="7">
-        <v>1565</v>
+        <v>204</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1499</v>
+      </c>
+      <c r="E43" s="8">
+        <v>2009</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G43" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="3">
+        <v>29</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1307</v>
+      </c>
+      <c r="E44" s="8">
+        <v>1621</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="3">
+        <v>30</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D45" s="8">
+        <v>1479</v>
+      </c>
+      <c r="E45" s="8">
+        <v>2041</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>197</v>
-      </c>
-      <c r="B47" s="6"/>
-    </row>
     <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>198</v>
-      </c>
-      <c r="B48" s="6"/>
+      <c r="A48" s="16" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>199</v>
-      </c>
-      <c r="B49" s="6"/>
+        <v>210</v>
+      </c>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>200</v>
-      </c>
-      <c r="B50" s="6"/>
+        <v>211</v>
+      </c>
+      <c r="B50" s="7"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>201</v>
-      </c>
-      <c r="B51" s="6"/>
+        <v>212</v>
+      </c>
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>213</v>
+      </c>
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>214</v>
+      </c>
+      <c r="B53" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
